--- a/data/trans_bre/P13A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,32 +636,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,04</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-41,24%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>102,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 20,25</t>
+          <t>-1,86; 1,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 22,87</t>
+          <t>-0,73; 1,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 24,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-85,34; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-48,85; 243,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>136,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1019,57%</t>
+          <t>1047,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 63,65</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 13,51</t>
+          <t>-0,15; 0,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 28,91</t>
+          <t>0,64; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 33,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-32,86</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-40,45</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,83</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-50,86%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-87,65%</t>
+          <t>-80,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>153,96%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,2; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 0,0</t>
+          <t>-2,34; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 10,67</t>
+          <t>-0,89; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -7,44</t>
+          <t>-2,95; -0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 23,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -974,19 +974,19 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -34,14</t>
+          <t>-100,0; -16,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-54,01; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-6,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1054,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 41,4</t>
+          <t>-0,55; 0,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 24,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 7,06</t>
+          <t>-0,61; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 8,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 8,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1089,23 +1089,151 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 157,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 153,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 81,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-59,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 0,33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 0,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 1,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-69,78; 391,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; 214,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P13A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-20,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>102,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="n">
+        <v>-10.6396392200601</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.067664331067916</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="n">
+        <v>-0.3947413807085717</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3013285401565767</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 1,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,99</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-48.92146554040725</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-20.43835344644218</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.8762269539346449</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>25.78498223375328</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>24.27766193094689</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>136,12%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1047,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 0,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 2,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.965420843309414</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16.49173394087738</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>0.6898557016935563</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>10.43617878526151</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,21%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-80,32%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-12.00075940329539</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>6.713471138192741</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,14</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; -0,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -16,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>22.79964032542504</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.65256459313823</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +795,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,82%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,77%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-48.92470403572585</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.9346847768941</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-19.3994209469617</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4206852430195168</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.8794554376393847</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 0,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 1,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-35.87334223738237</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-35.15982420661719</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.17433025827518</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-7.861923085308738</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>-0.4980429564037326</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-59,68%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22,77%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>48,74%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 0,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 0,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 0,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 1,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-69,78; 391,31</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-29,58; 214,05</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-67.44627444608081</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-25.22133254228899</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.342698553809215</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.869467266707485</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>-0.6744627444608081</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.6303746874216395</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2314720131108085</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1935640276037799</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="n">
+        <v>-80.71760592346652</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-19.19405183904766</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.534754142826252</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.8088053900159711</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.399640641927418</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="n">
+        <v>14.93894150182801</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.12452274288207</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.097264084241358</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>2.170512820532445</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.600218052132221</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
